--- a/isolatie/Energiebesparingsmethode_v3.xlsx
+++ b/isolatie/Energiebesparingsmethode_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno.sharepoint.com/teams/P060.47751/TeamDocuments/Team/Work/WP 8 kengetallen/Besparingsmethode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molenvdf\Desktop\Vesta\PD\VestaDV_SAWEC-WP5\isolatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1366" documentId="8_{7B92F687-8992-4C80-827A-1DDEA642F5BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C434980-A3BE-4944-BF62-124BF146E607}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0A547-23BC-4E26-931D-49380715A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{943CE3BD-1ECF-4364-9907-DF0383AD0E42}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{943CE3BD-1ECF-4364-9907-DF0383AD0E42}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimum versie" sheetId="8" r:id="rId1"/>
@@ -720,7 +720,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="318">
   <si>
     <t>Gebruiksoppervlakte woning (GO)</t>
   </si>
@@ -2001,6 +2001,24 @@
   </si>
   <si>
     <t>* obv aannames over gebruik van ventilatie is het gemiddelde debiet over 51 m3/uur voor een niet-vraaggestuurd systeem. Voor een vraaggestuurd systeem is dat 28 m3/uur.</t>
+  </si>
+  <si>
+    <t>Besparingspercentages t.o.v. N0</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>OUTPUT RICHTING HESTIA KENTALLEN</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2801,7 @@
     <xf numFmtId="0" fontId="26" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3021,58 +3039,24 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Calculation" xfId="6" builtinId="22"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Input" xfId="3" builtinId="20"/>
-    <cellStyle name="Linked Cell" xfId="7" builtinId="24"/>
-    <cellStyle name="Neutral" xfId="4" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="5" builtinId="21"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Berekening" xfId="6" builtinId="22"/>
+    <cellStyle name="Gekoppelde cel" xfId="7" builtinId="24"/>
+    <cellStyle name="Invoer" xfId="3" builtinId="20"/>
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Neutraal" xfId="4" builtinId="28"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Uitvoer" xfId="5" builtinId="21"/>
   </cellStyles>
   <dxfs count="29">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="d/m/yyyy"/>
     </dxf>
@@ -3356,6 +3340,43 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     </dxf>
     <dxf>
@@ -3482,8 +3503,8 @@
       <xdr:rowOff>73715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161193</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>162260</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>153193</xdr:rowOff>
     </xdr:to>
@@ -3527,7 +3548,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100854</xdr:colOff>
+      <xdr:colOff>751863</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>70504</xdr:rowOff>
     </xdr:to>
@@ -3570,7 +3591,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>153434</xdr:colOff>
+      <xdr:colOff>804443</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>103931</xdr:rowOff>
     </xdr:to>
@@ -3612,8 +3633,8 @@
       <xdr:rowOff>77148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171537</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>782</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>19862</xdr:rowOff>
     </xdr:to>
@@ -3656,9 +3677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>62917</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>188371</xdr:rowOff>
+      <xdr:colOff>62918</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>592</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3847,37 +3868,37 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7F236AC2-9D83-4F4C-AA18-91CB4CC1B353}" name="OpenRaam" displayName="OpenRaam" ref="B106:D110" totalsRowShown="0">
   <autoFilter ref="B106:D110" xr:uid="{C6213D16-FFC9-4D12-B1A3-3068813D058D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{247088EB-7AAC-45B3-87C2-78D11FD9C2A4}" name="Warmteverlies door open ramen" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{247088EB-7AAC-45B3-87C2-78D11FD9C2A4}" name="Warmteverlies door open ramen" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{3AC28346-D489-442A-818F-545BE77A7641}" name="Waarde"/>
-    <tableColumn id="3" xr3:uid="{8FD4E290-1F77-4E06-91AF-337D2BC02AD3}" name="Eenheid" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{8FD4E290-1F77-4E06-91AF-337D2BC02AD3}" name="Eenheid" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CCFB8F6E-2351-4F58-8D36-07B3B5E8C880}" name="Kieren" displayName="Kieren" ref="B114:G119" totalsRowShown="0" headerRowDxfId="10" headerRowCellStyle="Percent">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{CCFB8F6E-2351-4F58-8D36-07B3B5E8C880}" name="Kieren" displayName="Kieren" ref="B114:G119" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B114:G119" xr:uid="{2240ED1B-C43F-4119-B6BB-F8BF9C9F0414}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{816B26C3-1AB3-4BF4-A587-A79854948DA7}" name="Warmteverlies door kieren" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{816B26C3-1AB3-4BF4-A587-A79854948DA7}" name="Warmteverlies door kieren" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{89EC808A-5380-4542-A5E2-2C50FA040C56}" name="Niveau 1"/>
     <tableColumn id="3" xr3:uid="{F3959998-D685-49CE-8D6D-979B1C0DDC0B}" name="Niveau 2"/>
     <tableColumn id="4" xr3:uid="{099CAF79-EED8-40B8-82CA-45713CC445B4}" name="Niveau 3"/>
     <tableColumn id="5" xr3:uid="{F3391D7D-E65C-4F3F-AE7F-287BBC2CD028}" name="Niveau 4"/>
-    <tableColumn id="6" xr3:uid="{67A7FDBC-3217-4E79-9155-7F42DE9C9B27}" name="eenheid" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{67A7FDBC-3217-4E79-9155-7F42DE9C9B27}" name="eenheid" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{17AF9F57-EB5E-4752-8E2D-F5F1108A22F3}" name="GlasOrientatie" displayName="GlasOrientatie" ref="B75:E79" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{17AF9F57-EB5E-4752-8E2D-F5F1108A22F3}" name="GlasOrientatie" displayName="GlasOrientatie" ref="B75:E79" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B75:E79" xr:uid="{2A74D8EA-06A1-4460-A289-0D57C31EF046}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{910E991F-D850-4F24-9EAC-073EEBD9B606}" name="Glasoriëntatie" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{B79312BE-7100-4F62-8182-5C5F60835F55}" name="Raamoppervlakte verdeling [%]" dataCellStyle="Percent"/>
-    <tableColumn id="3" xr3:uid="{7D2AA9DE-2FD6-4F3B-AB18-3C76CD4696A9}" name="solar access [%]" dataDxfId="5" dataCellStyle="Percent"/>
-    <tableColumn id="4" xr3:uid="{BF38BAE3-DDC2-4BC6-B48D-C0A5BFA95A97}" name="solar irradiation heating season [lWh/m2]" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{910E991F-D850-4F24-9EAC-073EEBD9B606}" name="Glasoriëntatie" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{B79312BE-7100-4F62-8182-5C5F60835F55}" name="Raamoppervlakte verdeling [%]"/>
+    <tableColumn id="3" xr3:uid="{7D2AA9DE-2FD6-4F3B-AB18-3C76CD4696A9}" name="solar access [%]" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{BF38BAE3-DDC2-4BC6-B48D-C0A5BFA95A97}" name="solar irradiation heating season [lWh/m2]" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3888,7 +3909,7 @@
   <autoFilter ref="B43:D46" xr:uid="{C802A427-C85C-4198-A945-F9877BDC23F3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{1E5A23FB-0597-42F2-B1E4-857AAD4B6AA5}" name="Kental"/>
-    <tableColumn id="2" xr3:uid="{FBC2D48B-B7D7-4BA9-B719-97368D52872D}" name="Waarde" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{FBC2D48B-B7D7-4BA9-B719-97368D52872D}" name="Waarde" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{8B92E7D1-A0B2-4169-A53B-9A435EDF5BB6}" name="Eenheid"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3899,7 +3920,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{49881608-A718-421A-B7B2-D354484A817B}" name="Table15" displayName="Table15" ref="C2:E14" totalsRowShown="0">
   <autoFilter ref="C2:E14" xr:uid="{1AD17B2A-91D9-4D9D-A420-69DF32A4015E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6C185A7E-3903-4A27-BB5E-BBA826FE697F}" name="Maand" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{6C185A7E-3903-4A27-BB5E-BBA826FE697F}" name="Maand" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{2F9B2E5B-B3B6-4866-ABCF-5554319C78EF}" name="Lengte van de maand (stookuren)"/>
     <tableColumn id="3" xr3:uid="{0FD9E73D-947A-433D-933F-5CF3FA948BB4}" name="Maandgemiddelde buitentemperatuur"/>
   </tableColumns>
@@ -3924,7 +3945,7 @@
   <autoFilter ref="B4:G55" xr:uid="{8AE9F63A-21FA-4AB6-9E4C-662EE5B97692}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1ACE6DB5-DDE6-4EEA-8B49-B5655E6F03CD}" name="Zichtjaar"/>
-    <tableColumn id="2" xr3:uid="{A5220AF7-DEAA-4A4A-9D52-0975C5736D7C}" name="De Bilt" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{A5220AF7-DEAA-4A4A-9D52-0975C5736D7C}" name="De Bilt"/>
     <tableColumn id="3" xr3:uid="{7B1A6D5E-5F9D-42D3-85EE-3D9A5E7BC652}" name="Eelde"/>
     <tableColumn id="4" xr3:uid="{13002697-77C7-4B38-BEA1-10480D854C42}" name="Vlissingen"/>
     <tableColumn id="5" xr3:uid="{A5731A40-4D7E-482A-A630-4BDDCFED61C7}" name=".."/>
@@ -3939,11 +3960,11 @@
   <autoFilter ref="B4:G13" xr:uid="{1D7BFCDB-5F50-4B39-AF44-83508B76712C}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E9063AEB-9CC1-4D2E-A6AE-AAC2E5AE9A8D}" name="Gebouwdeel"/>
-    <tableColumn id="6" xr3:uid="{671EB7D1-9551-4294-8622-F2DCE5C378DB}" name="RC=0" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{B0062B87-40C5-4847-BF46-3724B6826542}" name="Niveau 1" dataCellStyle="Input"/>
-    <tableColumn id="3" xr3:uid="{0FF169B1-8C83-46F9-BF01-434B1BD11E84}" name="Niveau 2" dataCellStyle="Input"/>
-    <tableColumn id="4" xr3:uid="{B7134254-6D96-4710-B004-7310A9C5E60A}" name="Niveau 3" dataCellStyle="Input"/>
-    <tableColumn id="5" xr3:uid="{DFDA19E2-446C-4458-B0C8-8A8AE9534F49}" name="Niveau 4" dataCellStyle="Input"/>
+    <tableColumn id="6" xr3:uid="{671EB7D1-9551-4294-8622-F2DCE5C378DB}" name="RC=0"/>
+    <tableColumn id="2" xr3:uid="{B0062B87-40C5-4847-BF46-3724B6826542}" name="Niveau 1"/>
+    <tableColumn id="3" xr3:uid="{0FF169B1-8C83-46F9-BF01-434B1BD11E84}" name="Niveau 2"/>
+    <tableColumn id="4" xr3:uid="{B7134254-6D96-4710-B004-7310A9C5E60A}" name="Niveau 3"/>
+    <tableColumn id="5" xr3:uid="{DFDA19E2-446C-4458-B0C8-8A8AE9534F49}" name="Niveau 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3956,9 +3977,9 @@
     <tableColumn id="1" xr3:uid="{862610D9-9DAC-43D3-ADB2-27D41AC7E83A}" name="Gebouwdeel"/>
     <tableColumn id="6" xr3:uid="{757A3A9E-678E-4A51-9F1E-3FD4F225F042}" name="RC=0"/>
     <tableColumn id="2" xr3:uid="{BD5D262E-566D-45E3-A48D-52D2F799CDCF}" name="Niveau 1"/>
-    <tableColumn id="3" xr3:uid="{27395271-2148-4285-BA40-77811585A07C}" name="Niveau 2" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{A280FB1F-BD7A-4253-B868-60029A4E196B}" name="Niveau 3" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{8C375BE8-982E-46D6-8BB4-02D4D14B859B}" name="Niveau 4" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{27395271-2148-4285-BA40-77811585A07C}" name="Niveau 2"/>
+    <tableColumn id="4" xr3:uid="{A280FB1F-BD7A-4253-B868-60029A4E196B}" name="Niveau 3"/>
+    <tableColumn id="5" xr3:uid="{8C375BE8-982E-46D6-8BB4-02D4D14B859B}" name="Niveau 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3974,10 +3995,10 @@
     <tableColumn id="4" xr3:uid="{55D2FC6D-1194-4D80-92FF-DBA529396E72}" name="solar irradiation [kWh/m2]_x000a_heating season" dataDxfId="23">
       <calculatedColumnFormula>SUMPRODUCT($C$76:$C$79,$E$76:$E$79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{07812542-B27C-4A09-BAE4-30CF1AD9BEDB}" name="Solar access" dataCellStyle="Percent">
+    <tableColumn id="5" xr3:uid="{07812542-B27C-4A09-BAE4-30CF1AD9BEDB}" name="Solar access">
       <calculatedColumnFormula>SUMPRODUCT($D$76:$D$79,$C$76:$C$79)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{87CF2CA1-36EB-4E8A-8320-FF8AC375E335}" name="Warmtewinst [GJth]" dataDxfId="22" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{87CF2CA1-36EB-4E8A-8320-FF8AC375E335}" name="Warmtewinst [GJth]" dataDxfId="22">
       <calculatedColumnFormula>Glassoorten[[#This Row],[Zontoetredingsfactor]]*Glassoorten[[#This Row],[solar irradiation '[kWh/m2']
 heating season]]*Glassoorten[[#This Row],[Solar access]]*-3.6/1000</calculatedColumnFormula>
     </tableColumn>
@@ -4008,7 +4029,7 @@
     <tableColumn id="5" xr3:uid="{E16B220C-A307-4DAC-8583-730F72457BDA}" name="Ventilatiedebiet woning" dataDxfId="19">
       <calculatedColumnFormula array="1">Ventilatiedebiet[Ventilatiedebiet per woning]*(1-VentilatieKentallen[[#This Row],[Rendement warmteterugwinning]])*(1-VentilatieKentallen[[#This Row],[reductie draaiuren]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6E054331-572F-4AC3-9DCC-0F8F92B0750D}" name="Warmteverlies" dataDxfId="18" dataCellStyle="Comma">
+    <tableColumn id="6" xr3:uid="{6E054331-572F-4AC3-9DCC-0F8F92B0750D}" name="Warmteverlies" dataDxfId="18">
       <calculatedColumnFormula array="1">VentilatieKentallen[[#This Row],[Ventilatiedebiet woning]]/3600*Ventilatiedebiet[Cp lucht '[J/m3K']]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{67BD3489-7562-4AB3-A1EB-CAB187C3CF64}" name="Warmteverlies per jaar GJth" dataDxfId="17">
@@ -4023,8 +4044,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{27FF635B-D96D-4D31-B3CB-4AA1F311C15A}" name="Ventilatiedebiet" displayName="Ventilatiedebiet" ref="B91:C92" totalsRowShown="0">
   <autoFilter ref="B91:C92" xr:uid="{450F95F8-B6F2-429D-8978-D06CF30E4DB3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1EB56728-96CB-41E1-BE78-B025A726D779}" name="Ventilatiedebiet per woning" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{34359BC2-330E-428E-B0D1-E378BCD2C987}" name="Cp lucht [J/m3K]" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{1EB56728-96CB-41E1-BE78-B025A726D779}" name="Ventilatiedebiet per woning" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{34359BC2-330E-428E-B0D1-E378BCD2C987}" name="Cp lucht [J/m3K]" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4043,21 +4064,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F56CA03E-F2AC-497F-BC60-9DAEC7AC0884}" name="Stookseizoen" displayName="Stookseizoen" ref="B94:D95" totalsRowShown="0" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F56CA03E-F2AC-497F-BC60-9DAEC7AC0884}" name="Stookseizoen" displayName="Stookseizoen" ref="B94:D95" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="B94:D95" xr:uid="{DA525D08-D144-4542-A0AF-5375EC5A707A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6389005F-8AFC-4B62-AA8B-BABA315650B1}" name="Stookseizoen" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{F50D2085-58A7-41A1-87BE-6288A611E0ED}" name="uren" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{6389005F-8AFC-4B62-AA8B-BABA315650B1}" name="Stookseizoen" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F50D2085-58A7-41A1-87BE-6288A611E0ED}" name="uren" dataDxfId="12">
       <calculatedColumnFormula>8760/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3C4B1DA9-32A9-4E80-94FC-B4581623B9E9}" name="eenheid" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{3C4B1DA9-32A9-4E80-94FC-B4581623B9E9}" name="eenheid" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4359,11 +4380,11 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="22.54296875" customWidth="1"/>
+    <col min="7" max="7" width="30.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4383,7 +4404,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="3:9" ht="15.75" thickBot="1">
+    <row r="6" spans="3:9" ht="15" thickBot="1">
       <c r="C6" s="155" t="s">
         <v>212</v>
       </c>
@@ -4417,7 +4438,7 @@
       </c>
       <c r="H8" s="150">
         <f>_xlfn.FORECAST.LINEAR($H$9,'Correctie binnentemp'!$B$1:$I$1,INDEX('Correctie binnentemp'!$B$2:$I$77,MATCH($E$29,'Correctie binnentemp'!$A$2:$A$77,0),))</f>
-        <v>26.643147854885694</v>
+        <v>28.329423158083557</v>
       </c>
       <c r="I8" s="154" t="s">
         <v>31</v>
@@ -4438,7 +4459,7 @@
       </c>
       <c r="H9" s="150" cm="1">
         <f t="array" ref="H9">SUM(D11,-G41:G44)/SUM(G51,-G41:G44)*13+5</f>
-        <v>26.288205923240383</v>
+        <v>28.045939124408648</v>
       </c>
       <c r="I9" s="154" t="s">
         <v>31</v>
@@ -4478,7 +4499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="3:9" ht="15.75" thickBot="1">
+    <row r="13" spans="3:9" ht="15" thickBot="1">
       <c r="C13" s="143" t="s">
         <v>30</v>
       </c>
@@ -4490,25 +4511,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="3:9" ht="15.75" thickTop="1">
+    <row r="14" spans="3:9" ht="15" thickTop="1">
       <c r="C14" s="143" t="s">
         <v>91</v>
       </c>
       <c r="D14" s="159">
         <f>_xlfn.FORECAST.LINEAR($D$12,INDEX('Correctie binnentemp'!$B$2:$I$77,MATCH($E$29,'Correctie binnentemp'!$A$2:$A$77,0),),'Correctie binnentemp'!$B$1:$I$1)</f>
-        <v>19.094229957378058</v>
+        <v>19.131728134284437</v>
       </c>
       <c r="E14" s="154" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="3:9" ht="15.75" thickBot="1">
+    <row r="15" spans="3:9" ht="15" thickBot="1">
       <c r="C15" s="156" t="s">
         <v>220</v>
       </c>
       <c r="D15" s="157">
         <f>(D14-D13)/(18-5)</f>
-        <v>1.0760946121060047</v>
+        <v>1.0789790872526492</v>
       </c>
       <c r="E15" s="156" t="s">
         <v>6</v>
@@ -4534,7 +4555,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="18.75" thickBot="1">
+    <row r="18" spans="3:8" ht="17" thickBot="1">
       <c r="C18" s="112"/>
       <c r="D18" s="112"/>
       <c r="E18" s="112" t="s">
@@ -4550,7 +4571,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1">
+    <row r="19" spans="3:8" ht="15" thickBot="1">
       <c r="C19" s="144" t="s">
         <v>8</v>
       </c>
@@ -4570,10 +4591,10 @@
       </c>
       <c r="H19" s="159">
         <f t="shared" ref="H19:H28" si="0">G19*SchalingTempVerschil</f>
-        <v>2.5461319659416035</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>2.5529568810496372</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C20" s="144" t="s">
         <v>9</v>
       </c>
@@ -4593,10 +4614,10 @@
       </c>
       <c r="H20" s="159">
         <f t="shared" si="0"/>
-        <v>9.6995503464441999</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>9.7255500230462335</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C21" s="144" t="s">
         <v>11</v>
       </c>
@@ -4619,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C22" s="144" t="s">
         <v>12</v>
       </c>
@@ -4628,21 +4649,21 @@
       </c>
       <c r="E22" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C22,Uwaarden[Gebouwdeel],0),MATCH($D22,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>1.8867924528301885</v>
+        <v>0.68027210884353728</v>
       </c>
       <c r="F22" s="14">
         <v>10</v>
       </c>
       <c r="G22" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C22,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D22,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F22</f>
-        <v>3.5714499622641505</v>
+        <v>1.2876656326530609</v>
       </c>
       <c r="H22" s="159">
         <f t="shared" si="0"/>
-        <v>3.843218061798646</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>1.3893642890066047</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C23" s="144" t="s">
         <v>14</v>
       </c>
@@ -4651,21 +4672,21 @@
       </c>
       <c r="E23" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C23,Uwaarden[Gebouwdeel],0),MATCH($D23,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>0.27247956403269757</v>
+        <v>0.50761421319796951</v>
       </c>
       <c r="F23" s="14">
         <v>62</v>
       </c>
       <c r="G23" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C23,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D23,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F23</f>
-        <v>3.1977614648501369</v>
+        <v>5.9572510538071066</v>
       </c>
       <c r="H23" s="159">
         <f t="shared" si="0"/>
-        <v>3.4410938831254372</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>6.4277493045716749</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C24" s="144" t="s">
         <v>177</v>
       </c>
@@ -4674,21 +4695,21 @@
       </c>
       <c r="E24" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C24,Uwaarden[Gebouwdeel],0),MATCH($D24,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.1943573667711602</v>
+        <v>3.45</v>
       </c>
       <c r="F24" s="14">
         <v>2</v>
       </c>
       <c r="G24" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C24,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D24,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F24</f>
-        <v>0.83072597868338571</v>
+        <v>1.3060792512000001</v>
       </c>
       <c r="H24" s="159">
         <f t="shared" si="0"/>
-        <v>0.8939397497976791</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>1.4092321983393996</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C25" s="144" t="s">
         <v>178</v>
       </c>
@@ -4711,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C26" s="144" t="s">
         <v>16</v>
       </c>
@@ -4720,21 +4741,21 @@
       </c>
       <c r="E26" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C26,Uwaarden[Gebouwdeel],0),MATCH($D26,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="14">
         <v>8</v>
       </c>
       <c r="G26" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C26,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D26,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F26</f>
-        <v>4.0885959168000001</v>
+        <v>2.4228716543999997</v>
       </c>
       <c r="H26" s="159">
         <f t="shared" si="0"/>
-        <v>4.3997160371470905</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>2.6142278461948281</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C27" s="144" t="s">
         <v>17</v>
       </c>
@@ -4743,21 +4764,21 @@
       </c>
       <c r="E27" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C27,Uwaarden[Gebouwdeel],0),MATCH($D27,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F27" s="145">
         <v>8</v>
       </c>
       <c r="G27" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C27,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D27,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F27</f>
-        <v>4.0885959168000001</v>
+        <v>2.4228716543999997</v>
       </c>
       <c r="H27" s="159">
         <f t="shared" si="0"/>
-        <v>4.3997160371470905</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>2.6142278461948281</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C28" s="144" t="s">
         <v>205</v>
       </c>
@@ -4775,26 +4796,26 @@
       </c>
       <c r="H28" s="159">
         <f t="shared" si="0"/>
-        <v>4.876081802842223</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="16.5" thickTop="1" thickBot="1">
+        <v>4.8891521561504501</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
       <c r="C29" s="146" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="17">
         <f>ROUND(SUMPRODUCT(E19:E27,F19:F27)/Vloeroppervlakte,1)</f>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="17">
         <f>SUM(G19:G27)</f>
-        <v>27.156874267969098</v>
+        <v>24.776484275031592</v>
       </c>
       <c r="H29" s="17">
         <f>SUM(H19:H27)</f>
-        <v>29.223366081401743</v>
+        <v>26.733308388403206</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -4820,7 +4841,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="3:8" ht="18.75" thickBot="1">
+    <row r="33" spans="3:8" ht="17" thickBot="1">
       <c r="C33" t="s">
         <v>198</v>
       </c>
@@ -4838,7 +4859,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="15.75" thickBot="1">
+    <row r="34" spans="3:8" ht="15" thickBot="1">
       <c r="C34" s="146" t="s">
         <v>208</v>
       </c>
@@ -4851,10 +4872,10 @@
       </c>
       <c r="H34" s="17">
         <f>G34*SchalingTempVerschil</f>
-        <v>0.59294321222848057</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="15.75" thickBot="1">
+        <v>0.59453259845883943</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" ht="15" thickBot="1">
       <c r="C35" s="146" t="s">
         <v>203</v>
       </c>
@@ -4867,7 +4888,7 @@
       </c>
       <c r="H35" s="17">
         <f>G35*SchalingTempVerschil</f>
-        <v>3.7682788736189279</v>
+        <v>3.7783797575321993</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -4884,7 +4905,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="3:8" ht="18.75" thickBot="1">
+    <row r="38" spans="3:8" ht="17" thickBot="1">
       <c r="C38" s="112"/>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
@@ -4930,7 +4951,7 @@
         <v>-3.22579584</v>
       </c>
     </row>
-    <row r="41" spans="3:8" ht="15.75" thickBot="1">
+    <row r="41" spans="3:8" ht="15" thickBot="1">
       <c r="C41" s="146" t="s">
         <v>143</v>
       </c>
@@ -4946,7 +4967,7 @@
         <v>-6.4515916799999999</v>
       </c>
     </row>
-    <row r="42" spans="3:8" ht="15.75" thickBot="1">
+    <row r="42" spans="3:8" ht="15" thickBot="1">
       <c r="C42" s="146"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -4954,7 +4975,7 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="3:8" ht="15.75" thickBot="1">
+    <row r="43" spans="3:8" ht="15" thickBot="1">
       <c r="C43" s="146" t="s">
         <v>218</v>
       </c>
@@ -4970,7 +4991,7 @@
         <v>-2.1759840000000001</v>
       </c>
     </row>
-    <row r="44" spans="3:8" ht="15.75" thickBot="1">
+    <row r="44" spans="3:8" ht="15" thickBot="1">
       <c r="C44" s="146" t="s">
         <v>219</v>
       </c>
@@ -5000,7 +5021,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="3:8" ht="18.75" thickBot="1">
+    <row r="50" spans="3:8" ht="17" thickBot="1">
       <c r="C50" s="112"/>
       <c r="D50" s="112"/>
       <c r="E50" s="112"/>
@@ -5012,7 +5033,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="3:8" ht="15.75" thickBot="1">
+    <row r="51" spans="3:8" ht="15" thickBot="1">
       <c r="C51" s="146" t="s">
         <v>227</v>
       </c>
@@ -5021,14 +5042,14 @@
       <c r="F51" s="3"/>
       <c r="G51" s="17">
         <f>SUM(G29,G34:G35,G41:G44)</f>
-        <v>18.082122602497098</v>
+        <v>15.701732609559592</v>
       </c>
       <c r="H51" s="175">
         <f>SUM(H29,H34:H35,H41:H44)</f>
-        <v>20.457012487249152</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" ht="15.75" thickBot="1">
+        <v>17.978645064394247</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" ht="15" thickBot="1">
       <c r="C52" s="146" t="s">
         <v>209</v>
       </c>
@@ -5038,7 +5059,7 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
     </row>
-    <row r="53" spans="3:8" ht="15.75" thickBot="1">
+    <row r="53" spans="3:8" ht="15" thickBot="1">
       <c r="C53" s="146" t="s">
         <v>228</v>
       </c>
@@ -5112,21 +5133,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159CF262-85EC-4D72-BFF2-C4FA8287F177}">
   <dimension ref="B2:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="3" max="3" width="28.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="23.25">
+    <row r="2" spans="2:17" ht="23.5">
       <c r="B2" s="182" t="s">
         <v>23</v>
       </c>
@@ -5177,11 +5200,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D5" s="59">
-        <f>K5</f>
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="59">
         <v>1.26</v>
@@ -5208,11 +5230,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D6" s="59">
-        <f t="shared" ref="D6:D11" si="0">K6</f>
-        <v>0.22</v>
+        <v>0.86</v>
       </c>
       <c r="E6" s="59">
         <v>1.33</v>
@@ -5239,11 +5260,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="59">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>0.86</v>
       </c>
       <c r="E7" s="59">
         <v>1.33</v>
@@ -5270,20 +5290,19 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="D8" s="59">
-        <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>1.3</v>
       </c>
       <c r="E8" s="59">
         <v>1.8</v>
       </c>
       <c r="F8" s="59">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="G8" s="59">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="J8" s="188" t="s">
         <v>12</v>
@@ -5301,17 +5320,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D9" s="59">
-        <f t="shared" si="0"/>
-        <v>0.19</v>
+        <v>1.3</v>
       </c>
       <c r="E9" s="59">
+        <v>1.8</v>
+      </c>
+      <c r="F9" s="59">
         <v>3.5</v>
-      </c>
-      <c r="F9" s="59">
-        <v>5</v>
       </c>
       <c r="G9" s="59">
         <v>6</v>
@@ -5335,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D10" si="0">K10</f>
         <v>0.2857142857142857</v>
       </c>
       <c r="E10" s="59">
@@ -5372,11 +5390,10 @@
         <v>178</v>
       </c>
       <c r="C11" s="74">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D11" s="59">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>1.3</v>
       </c>
       <c r="E11" s="59">
         <v>2</v>
@@ -5466,7 +5483,7 @@
       <c r="M14" s="102"/>
       <c r="N14" s="102"/>
     </row>
-    <row r="15" spans="2:17" ht="23.25">
+    <row r="15" spans="2:17" ht="23.5">
       <c r="B15" s="182" t="s">
         <v>24</v>
       </c>
@@ -5500,11 +5517,11 @@
       </c>
       <c r="C18" s="12">
         <f>1/(C5+0.17+0.17)</f>
-        <v>2.9411764705882351</v>
+        <v>2.0408163265306123</v>
       </c>
       <c r="D18" s="12">
         <f>1/(D5+0.17+0.17)</f>
-        <v>2.0408163265306123</v>
+        <v>1.1627906976744184</v>
       </c>
       <c r="E18" s="12">
         <f>1/(E5+0.17+0.17)</f>
@@ -5528,11 +5545,11 @@
       </c>
       <c r="C19" s="12">
         <f t="shared" ref="C19:G20" si="1">1/(C6+0.1+0.04)</f>
-        <v>7.1428571428571423</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
-        <v>2.7777777777777777</v>
+        <v>1</v>
       </c>
       <c r="E19" s="12">
         <f t="shared" si="1"/>
@@ -5553,11 +5570,11 @@
       </c>
       <c r="C20" s="12">
         <f t="shared" si="1"/>
-        <v>7.1428571428571423</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
-        <v>2.7777777777777777</v>
+        <v>1</v>
       </c>
       <c r="E20" s="12">
         <f t="shared" si="1"/>
@@ -5581,11 +5598,11 @@
       </c>
       <c r="C21" s="12">
         <f t="shared" ref="C21:G24" si="2">1/(C8+0.13+0.04)</f>
-        <v>5.8823529411764701</v>
+        <v>1.8867924528301885</v>
       </c>
       <c r="D21" s="12">
         <f t="shared" si="2"/>
-        <v>1.8867924528301885</v>
+        <v>0.68027210884353728</v>
       </c>
       <c r="E21" s="12">
         <f t="shared" si="2"/>
@@ -5593,11 +5610,11 @@
       </c>
       <c r="F21" s="12">
         <f t="shared" si="2"/>
-        <v>0.50761421319796951</v>
+        <v>0.27247956403269757</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0.50761421319796951</v>
+        <v>0.16207455429497569</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -5606,19 +5623,19 @@
       </c>
       <c r="C22" s="135">
         <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D22" s="135">
         <f t="shared" si="2"/>
-        <v>2.7777777777777777</v>
+        <v>0.68027210884353728</v>
       </c>
       <c r="E22" s="135">
         <f t="shared" si="2"/>
-        <v>0.27247956403269757</v>
+        <v>0.50761421319796951</v>
       </c>
       <c r="F22" s="135">
         <f t="shared" si="2"/>
-        <v>0.19342359767891684</v>
+        <v>0.27247956403269757</v>
       </c>
       <c r="G22" s="135">
         <f t="shared" si="2"/>
@@ -5630,24 +5647,19 @@
         <v>177</v>
       </c>
       <c r="C23" s="135">
-        <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
+        <v>3.45</v>
       </c>
       <c r="D23" s="135">
-        <f t="shared" si="2"/>
-        <v>2.1943573667711602</v>
+        <v>3.45</v>
       </c>
       <c r="E23" s="135">
-        <f t="shared" si="2"/>
-        <v>2.1943573667711602</v>
+        <v>3.45</v>
       </c>
       <c r="F23" s="135">
-        <f t="shared" si="2"/>
-        <v>2.1943573667711602</v>
+        <v>3.45</v>
       </c>
       <c r="G23" s="135">
-        <f t="shared" si="2"/>
-        <v>0.61728395061728392</v>
+        <v>0.69</v>
       </c>
       <c r="I23" s="131"/>
     </row>
@@ -5657,11 +5669,11 @@
       </c>
       <c r="C24" s="135">
         <f t="shared" si="2"/>
-        <v>5.8823529411764701</v>
+        <v>2.4390243902439024</v>
       </c>
       <c r="D24" s="135">
         <f t="shared" si="2"/>
-        <v>2.4390243902439024</v>
+        <v>0.68027210884353728</v>
       </c>
       <c r="E24" s="135">
         <f t="shared" si="2"/>
@@ -5681,16 +5693,13 @@
         <v>16</v>
       </c>
       <c r="C25" s="12">
-        <f>VLOOKUP(C12,Glassoorten[],2,FALSE)</f>
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="D25" s="12">
-        <f>VLOOKUP(D12,Glassoorten[],2,FALSE)</f>
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="E25" s="12">
-        <f>VLOOKUP(E12,Glassoorten[],2,FALSE)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="12">
         <f>VLOOKUP(F12,Glassoorten[],2,FALSE)</f>
@@ -5706,16 +5715,13 @@
         <v>17</v>
       </c>
       <c r="C26" s="12">
-        <f>VLOOKUP(C13,Glassoorten[],2,FALSE)</f>
-        <v>10</v>
+        <v>5.8</v>
       </c>
       <c r="D26" s="12">
-        <f>VLOOKUP(D13,Glassoorten[],2,FALSE)</f>
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="E26" s="12">
-        <f>VLOOKUP(E13,Glassoorten[],2,FALSE)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="F26" s="12">
         <f>VLOOKUP(F13,Glassoorten[],2,FALSE)</f>
@@ -5726,7 +5732,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="23.25">
+    <row r="28" spans="2:9" ht="23.5">
       <c r="B28" s="182" t="s">
         <v>272</v>
       </c>
@@ -5811,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="23.25">
+    <row r="41" spans="2:4" ht="23.5">
       <c r="B41" s="182" t="s">
         <v>273</v>
       </c>
@@ -5827,7 +5833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="15.75">
+    <row r="44" spans="2:4">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -5839,7 +5845,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="15.75">
+    <row r="45" spans="2:4">
       <c r="B45" t="s">
         <v>91</v>
       </c>
@@ -5862,12 +5868,20 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="23.25">
+    <row r="49" spans="2:12" ht="23.5">
       <c r="B49" s="182" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="I49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
+      <c r="J50" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -5886,18 +5900,30 @@
       <c r="G51" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
+      <c r="I51" t="s">
+        <v>313</v>
+      </c>
+      <c r="J51" t="s">
+        <v>314</v>
+      </c>
+      <c r="K51" t="s">
+        <v>315</v>
+      </c>
+      <c r="L51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" ref="C52:G60" si="3">C18*(BinnenTempTheoretisch-BuitenTempTheoretisch)*StookseizoenTheoretisch*3.6/10^6*$C31</f>
-        <v>0.27836301176470585</v>
+        <v>0.19314984489795917</v>
       </c>
       <c r="D52" s="12">
         <f t="shared" si="3"/>
-        <v>0.19314984489795917</v>
+        <v>0.1100504930232558</v>
       </c>
       <c r="E52" s="12">
         <f t="shared" si="3"/>
@@ -5911,18 +5937,34 @@
         <f t="shared" si="3"/>
         <v>1.772348764044944E-2</v>
       </c>
-    </row>
-    <row r="53" spans="2:7">
+      <c r="I52" s="195">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>43.023255813953497</v>
+      </c>
+      <c r="J52" s="195">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>69.375</v>
+      </c>
+      <c r="K52" s="195">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>87.239583333333329</v>
+      </c>
+      <c r="L52" s="195">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>90.823970037453179</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
         <v>9</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="3"/>
-        <v>1.3520489142857139</v>
+        <v>0.52579680000000006</v>
       </c>
       <c r="D53" s="12">
         <f t="shared" si="3"/>
-        <v>0.52579680000000006</v>
+        <v>0.18928684800000001</v>
       </c>
       <c r="E53" s="12">
         <f t="shared" si="3"/>
@@ -5936,18 +5978,34 @@
         <f t="shared" si="3"/>
         <v>2.3253912530712531E-2</v>
       </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="I53" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>64</v>
+      </c>
+      <c r="J53" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>75.510204081632665</v>
+      </c>
+      <c r="K53" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>90.109890109890117</v>
+      </c>
+      <c r="L53" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>95.577395577395578</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="3"/>
-        <v>1.3520489142857139</v>
+        <v>0.52579680000000006</v>
       </c>
       <c r="D54" s="12">
         <f t="shared" si="3"/>
-        <v>0.52579680000000006</v>
+        <v>0.18928684800000001</v>
       </c>
       <c r="E54" s="12">
         <f t="shared" si="3"/>
@@ -5961,18 +6019,34 @@
         <f t="shared" si="3"/>
         <v>2.3253912530712531E-2</v>
       </c>
-    </row>
-    <row r="55" spans="2:7">
+      <c r="I54" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>64</v>
+      </c>
+      <c r="J54" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>75.510204081632665</v>
+      </c>
+      <c r="K54" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>90.109890109890117</v>
+      </c>
+      <c r="L54" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>95.577395577395578</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
       <c r="B55" t="s">
         <v>12</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="3"/>
-        <v>1.1134520470588234</v>
+        <v>0.35714499622641505</v>
       </c>
       <c r="D55" s="12">
         <f t="shared" si="3"/>
-        <v>0.35714499622641505</v>
+        <v>0.12876656326530608</v>
       </c>
       <c r="E55" s="12">
         <f t="shared" si="3"/>
@@ -5980,74 +6054,122 @@
       </c>
       <c r="F55" s="12">
         <f t="shared" si="3"/>
-        <v>9.6084694416243649E-2</v>
+        <v>5.15767978201635E-2</v>
       </c>
       <c r="G55" s="12">
         <f t="shared" si="3"/>
-        <v>9.6084694416243649E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7">
+        <v>3.0678581523500812E-2</v>
+      </c>
+      <c r="I55" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>63.945578231292522</v>
+      </c>
+      <c r="J55" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>73.096446700507613</v>
+      </c>
+      <c r="K55" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>85.558583106267022</v>
+      </c>
+      <c r="L55" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>91.41004862236629</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12">
       <c r="B56" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="12">
         <f t="shared" si="3"/>
-        <v>1.1134520470588234</v>
+        <v>0.52579680000000006</v>
       </c>
       <c r="D56" s="12">
         <f t="shared" si="3"/>
-        <v>0.52579680000000006</v>
+        <v>0.12876656326530608</v>
       </c>
       <c r="E56" s="12">
         <f t="shared" si="3"/>
-        <v>5.15767978201635E-2</v>
+        <v>9.6084694416243649E-2</v>
       </c>
       <c r="F56" s="12">
         <f t="shared" si="3"/>
-        <v>3.6612543133462287E-2</v>
+        <v>5.15767978201635E-2</v>
       </c>
       <c r="G56" s="12">
         <f t="shared" si="3"/>
         <v>3.0678581523500812E-2</v>
       </c>
-    </row>
-    <row r="57" spans="2:7">
+      <c r="I56" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>75.510204081632665</v>
+      </c>
+      <c r="J56" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>81.725888324873097</v>
+      </c>
+      <c r="K56" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>90.190735694822891</v>
+      </c>
+      <c r="L56" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>94.165316045380877</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12">
       <c r="B57" t="s">
         <v>177</v>
       </c>
       <c r="C57" s="12">
         <f t="shared" si="3"/>
-        <v>1.1134520470588234</v>
+        <v>0.65303962560000006</v>
       </c>
       <c r="D57" s="12">
         <f t="shared" si="3"/>
-        <v>0.41536298934169286</v>
+        <v>0.65303962560000006</v>
       </c>
       <c r="E57" s="12">
         <f t="shared" si="3"/>
-        <v>0.41536298934169286</v>
+        <v>0.65303962560000006</v>
       </c>
       <c r="F57" s="12">
         <f t="shared" si="3"/>
-        <v>0.41536298934169286</v>
+        <v>0.65303962560000006</v>
       </c>
       <c r="G57" s="12">
         <f t="shared" si="3"/>
-        <v>0.11684373333333334</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7">
+        <v>0.13060792512</v>
+      </c>
+      <c r="I57" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
         <v>178</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="3"/>
-        <v>1.1134520470588234</v>
+        <v>0.46167523902439023</v>
       </c>
       <c r="D58" s="12">
         <f t="shared" si="3"/>
-        <v>0.46167523902439023</v>
+        <v>0.12876656326530608</v>
       </c>
       <c r="E58" s="12">
         <f t="shared" si="3"/>
@@ -6061,22 +6183,38 @@
         <f t="shared" si="3"/>
         <v>3.6612543133462287E-2</v>
       </c>
-    </row>
-    <row r="59" spans="2:7">
+      <c r="I58" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>72.10884353741497</v>
+      </c>
+      <c r="J58" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>81.105990783410135</v>
+      </c>
+      <c r="K58" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>88.828337874659397</v>
+      </c>
+      <c r="L58" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>92.069632495164413</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="3"/>
-        <v>1.8928684800000002</v>
+        <v>1.0978637184</v>
       </c>
       <c r="D59" s="12">
         <f t="shared" si="3"/>
-        <v>1.0978637184</v>
+        <v>0.51107448960000001</v>
       </c>
       <c r="E59" s="12">
         <f t="shared" si="3"/>
-        <v>0.51107448960000001</v>
+        <v>0.30285895679999997</v>
       </c>
       <c r="F59" s="12">
         <f t="shared" si="3"/>
@@ -6086,22 +6224,38 @@
         <f t="shared" si="3"/>
         <v>0.15142947839999998</v>
       </c>
-    </row>
-    <row r="60" spans="2:7">
+      <c r="I59" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>53.448275862068968</v>
+      </c>
+      <c r="J59" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>72.413793103448285</v>
+      </c>
+      <c r="K59" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="L59" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>86.206896551724142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12">
       <c r="B60" t="s">
         <v>17</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="3"/>
-        <v>1.8928684800000002</v>
+        <v>1.0978637184</v>
       </c>
       <c r="D60" s="12">
         <f t="shared" si="3"/>
-        <v>1.0978637184</v>
+        <v>0.51107448960000001</v>
       </c>
       <c r="E60" s="12">
         <f t="shared" si="3"/>
-        <v>0.51107448960000001</v>
+        <v>0.30285895679999997</v>
       </c>
       <c r="F60" s="12">
         <f t="shared" si="3"/>
@@ -6111,17 +6265,33 @@
         <f t="shared" si="3"/>
         <v>0.15142947839999998</v>
       </c>
-    </row>
-    <row r="61" spans="2:7">
+      <c r="I60" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>53.448275862068968</v>
+      </c>
+      <c r="J60" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>72.413793103448285</v>
+      </c>
+      <c r="K60" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>79.310344827586206</v>
+      </c>
+      <c r="L60" s="193">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>86.206896551724142</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12">
       <c r="B61" t="s">
         <v>204</v>
       </c>
-      <c r="C61" s="130" t="str">
-        <f t="shared" ref="C61:D61" si="4">B119</f>
-        <v>Warmteverlies per jaar (theoretisch)</v>
+      <c r="C61" s="130">
+        <f>C119</f>
+        <v>6.0367935114845318E-2</v>
       </c>
       <c r="D61" s="130">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D61" si="4">C119</f>
         <v>6.0367935114845318E-2</v>
       </c>
       <c r="E61" s="130">
@@ -6136,13 +6306,29 @@
         <f>F119</f>
         <v>1.5128793495244775E-2</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" ht="23.25">
+      <c r="I61" s="194">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="194">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>24.939024390243901</v>
+      </c>
+      <c r="K61" s="194">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>56.17886178861788</v>
+      </c>
+      <c r="L61" s="194">
+        <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 4]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
+        <v>74.939024390243901</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="23.5">
       <c r="B63" s="182" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="30">
+    <row r="65" spans="2:9" ht="29">
       <c r="B65" t="s">
         <v>39</v>
       </c>
@@ -6308,7 +6494,7 @@
         <v>-0.21505305599999999</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="23.25">
+    <row r="73" spans="2:9" ht="23.5">
       <c r="B73" s="182" t="s">
         <v>277</v>
       </c>
@@ -6389,7 +6575,7 @@
       <c r="F79" s="18"/>
     </row>
     <row r="80" spans="2:9"/>
-    <row r="81" spans="2:10" ht="23.25">
+    <row r="81" spans="2:10" ht="23.5">
       <c r="B81" s="182" t="s">
         <v>278</v>
       </c>
@@ -6557,7 +6743,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="2:10" ht="15.75" thickBot="1">
+    <row r="92" spans="2:10" ht="15" thickBot="1">
       <c r="B92" s="74">
         <v>51.3</v>
       </c>
@@ -6677,7 +6863,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="17.25">
+    <row r="108" spans="2:6" ht="16.5">
       <c r="B108" s="18" t="s">
         <v>73</v>
       </c>
@@ -6717,7 +6903,7 @@
       <c r="C113" s="64"/>
       <c r="G113" s="172"/>
     </row>
-    <row r="114" spans="2:9" ht="15.75" thickBot="1">
+    <row r="114" spans="2:9" ht="15" thickBot="1">
       <c r="B114" s="3" t="s">
         <v>112</v>
       </c>
@@ -6737,7 +6923,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="2:9" ht="17.25">
+    <row r="115" spans="2:9" ht="16.5">
       <c r="B115" s="18" t="s">
         <v>66</v>
       </c>
@@ -6787,7 +6973,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="117" spans="2:9" ht="17.25">
+    <row r="117" spans="2:9" ht="16.5">
       <c r="B117" s="167" t="s">
         <v>73</v>
       </c>
@@ -6892,11 +7078,11 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -7122,22 +7308,22 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.453125" customWidth="1"/>
     <col min="10" max="11" width="4" customWidth="1"/>
     <col min="12" max="13" width="4" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="4" customWidth="1"/>
     <col min="18" max="23" width="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="27" max="30" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1">
+    <row r="1" spans="1:26" ht="15" thickBot="1">
       <c r="A1" s="112" t="s">
         <v>221</v>
       </c>
@@ -9866,11 +10052,11 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -10372,19 +10558,19 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="50.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="74" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.54296875" style="74" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13">
@@ -10414,7 +10600,7 @@
       </c>
       <c r="J5" s="128">
         <f>L109</f>
-        <v>1500.0000000000005</v>
+        <v>1500.0000000000002</v>
       </c>
       <c r="K5" s="90"/>
       <c r="L5" t="s">
@@ -10422,7 +10608,7 @@
       </c>
       <c r="M5" s="8">
         <f>J10/K7</f>
-        <v>1.4644144126552885</v>
+        <v>1.4541426289881425</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -10437,7 +10623,7 @@
       </c>
       <c r="J6" s="74">
         <f>J5*31.65/1000</f>
-        <v>47.475000000000016</v>
+        <v>47.475000000000009</v>
       </c>
       <c r="K6" s="90"/>
       <c r="L6" t="s">
@@ -10450,11 +10636,11 @@
       </c>
       <c r="J7" s="137">
         <f>SUM(J37,J41,J45,J51)</f>
-        <v>48.292081779127223</v>
+        <v>47.801220567516509</v>
       </c>
       <c r="K7" s="138">
         <f>SUM(K37,K41,K45,K51)</f>
-        <v>32.977059882635011</v>
+        <v>32.872442919013203</v>
       </c>
       <c r="L7" t="s">
         <v>111</v>
@@ -10491,7 +10677,7 @@
       </c>
       <c r="J10" s="128">
         <f>(J9-J101-J105)*H97+J73+J78+J82</f>
-        <v>48.292081779127223</v>
+        <v>47.801220567516509</v>
       </c>
       <c r="K10" s="90"/>
       <c r="L10" t="s">
@@ -10501,14 +10687,14 @@
     <row r="11" spans="2:13">
       <c r="J11" s="135">
         <f>TempVerschilCorrectie*M5</f>
-        <v>27.878624435902935</v>
+        <v>27.48890021072711</v>
       </c>
       <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:13">
       <c r="J12" s="136">
         <f>J11-buitentemperatuur</f>
-        <v>22.878624435902935</v>
+        <v>22.48890021072711</v>
       </c>
       <c r="K12" s="90"/>
     </row>
@@ -10560,7 +10746,7 @@
     <row r="17" spans="2:16">
       <c r="G17" s="6">
         <f>SUMPRODUCT(I27:I35,C27:C35)/B6</f>
-        <v>1.3710149532261715</v>
+        <v>1.3659112883732172</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
@@ -10590,7 +10776,7 @@
       </c>
       <c r="M18" s="6">
         <f>buitentemperatuur+M19</f>
-        <v>32.970315281716012</v>
+        <v>32.774124213673524</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -10609,7 +10795,7 @@
       </c>
       <c r="M19" s="6">
         <f>temperatuurverschil*M5</f>
-        <v>27.970315281716012</v>
+        <v>27.774124213673524</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -10618,7 +10804,7 @@
       </c>
       <c r="J20" s="75">
         <f>TemperatuurVerschilCorrectieTheoretisch*M5</f>
-        <v>19.03738736451875</v>
+        <v>18.903854176845854</v>
       </c>
       <c r="K20" s="90">
         <f>K18-K17</f>
@@ -10683,7 +10869,7 @@
       <c r="N24" s="64"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="2:16" ht="18.75">
+    <row r="25" spans="2:16" ht="17.5">
       <c r="B25" s="10"/>
       <c r="C25" s="10" t="s">
         <v>5</v>
@@ -10713,7 +10899,7 @@
       <c r="B26" s="2"/>
       <c r="K26" s="93"/>
     </row>
-    <row r="27" spans="2:16" ht="15.75" thickBot="1">
+    <row r="27" spans="2:16" ht="15" thickBot="1">
       <c r="B27" s="63" t="s">
         <v>8</v>
       </c>
@@ -10737,7 +10923,7 @@
       </c>
       <c r="J27" s="78">
         <f t="shared" ref="J27:J35" si="0">I27*D27*C27*TempVerschilCorrectie*stookuren*3.6/10^6</f>
-        <v>3.7522690495466455</v>
+        <v>3.7259496582563179</v>
       </c>
       <c r="K27" s="142">
         <f t="shared" ref="K27:K35" si="1">I27*D27*C27*$K$20*stookuren*3.6/10^6</f>
@@ -10747,7 +10933,7 @@
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="2:16" ht="15.5" thickTop="1" thickBot="1">
       <c r="B28" s="63" t="s">
         <v>9</v>
       </c>
@@ -10770,7 +10956,7 @@
       </c>
       <c r="J28" s="78">
         <f t="shared" si="0"/>
-        <v>14.294358283987219</v>
+        <v>14.194093936214539</v>
       </c>
       <c r="K28" s="97">
         <f t="shared" si="1"/>
@@ -10780,7 +10966,7 @@
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="2:16" ht="15.5" thickTop="1" thickBot="1">
       <c r="B29" s="63" t="s">
         <v>11</v>
       </c>
@@ -10813,7 +10999,7 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="2:16" ht="15.5" thickTop="1" thickBot="1">
       <c r="B30" s="63" t="s">
         <v>12</v>
       </c>
@@ -10832,7 +11018,7 @@
       </c>
       <c r="I30" s="72">
         <f>INDEX(Kentallen!$C21:$G21,1,MATCH($H30,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>1.8867924528301885</v>
+        <v>0.68027210884353728</v>
       </c>
       <c r="J30" s="78">
         <f t="shared" si="0"/>
@@ -10846,7 +11032,7 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="2:16" ht="15.5" thickTop="1" thickBot="1">
       <c r="B31" s="63" t="s">
         <v>14</v>
       </c>
@@ -10865,21 +11051,21 @@
       </c>
       <c r="I31" s="72">
         <f>INDEX(Kentallen!$C22:$G22,1,MATCH($H31,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>0.27247956403269757</v>
+        <v>0.50761421319796951</v>
       </c>
       <c r="J31" s="78">
         <f t="shared" si="0"/>
-        <v>5.0711865083791192</v>
+        <v>9.3810712207874811</v>
       </c>
       <c r="K31" s="97">
         <f t="shared" si="1"/>
-        <v>3.4629449591280665</v>
+        <v>6.4512730964467</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="2:16" ht="15.5" thickTop="1" thickBot="1">
       <c r="B32" s="63" t="s">
         <v>177</v>
       </c>
@@ -10898,21 +11084,21 @@
       </c>
       <c r="I32" s="72">
         <f>INDEX(Kentallen!$C23:$G23,1,MATCH($H32,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.1943573667711602</v>
+        <v>3.45</v>
       </c>
       <c r="J32" s="78">
         <f t="shared" si="0"/>
-        <v>1.3174110769568161</v>
+        <v>2.0567242113574875</v>
       </c>
       <c r="K32" s="97">
         <f t="shared" si="1"/>
-        <v>0.89961630094043898</v>
+        <v>1.4143896</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="B33" s="63" t="s">
         <v>178</v>
       </c>
@@ -10945,7 +11131,7 @@
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="B34" s="63" t="s">
         <v>16</v>
       </c>
@@ -10964,21 +11150,21 @@
       </c>
       <c r="I34" s="72">
         <f>INDEX(Kentallen!$C25:$G25,1,MATCH($H34,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J34" s="78">
         <f t="shared" si="0"/>
-        <v>6.4839209176166035</v>
+        <v>3.8153724500544697</v>
       </c>
       <c r="K34" s="97">
         <f t="shared" si="1"/>
-        <v>4.4276544000000007</v>
+        <v>2.6237952</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="B35" s="63" t="s">
         <v>17</v>
       </c>
@@ -10997,21 +11183,21 @@
       </c>
       <c r="I35" s="72">
         <f>INDEX(Kentallen!$C26:$G26,1,MATCH($H35,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="J35" s="79">
         <f t="shared" si="0"/>
-        <v>6.4839209176166035</v>
+        <v>3.8153724500544697</v>
       </c>
       <c r="K35" s="97">
         <f t="shared" si="1"/>
-        <v>4.4276544000000007</v>
+        <v>2.6237952</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="B36" s="63" t="s">
         <v>204</v>
       </c>
@@ -11036,7 +11222,7 @@
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="2:14" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="2:14" ht="15.5" thickTop="1" thickBot="1">
       <c r="B37" s="3" t="s">
         <v>195</v>
       </c>
@@ -11054,15 +11240,15 @@
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f>SUMPRODUCT(I27:I35,C27:C35)/C37</f>
-        <v>0.72158681748745868</v>
+        <v>0.71890067809116698</v>
       </c>
       <c r="J37" s="80">
         <f t="shared" ref="J37" si="2">SUM(J27:J35)</f>
-        <v>37.403066754103008</v>
+        <v>36.988583926724765</v>
       </c>
       <c r="K37" s="94">
         <f>SUM(K27:K35)</f>
-        <v>25.541312917211364</v>
+        <v>25.436695953589556</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -11104,7 +11290,7 @@
       <c r="M39" s="64"/>
       <c r="N39" s="64"/>
     </row>
-    <row r="40" spans="2:14" ht="17.25">
+    <row r="40" spans="2:14" ht="16.5">
       <c r="B40" s="10"/>
       <c r="C40" s="10" t="s">
         <v>93</v>
@@ -11135,7 +11321,7 @@
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
     </row>
-    <row r="41" spans="2:14" ht="15.75" thickBot="1">
+    <row r="41" spans="2:14" ht="15" thickBot="1">
       <c r="B41" s="3" t="s">
         <v>92</v>
       </c>
@@ -11164,7 +11350,7 @@
       </c>
       <c r="J41" s="80">
         <f>I41*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>2.3076454654711878</v>
+        <v>2.291459039827636</v>
       </c>
       <c r="K41" s="94">
         <f>I41*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -11214,7 +11400,7 @@
       <c r="M43" s="64"/>
       <c r="N43" s="64"/>
     </row>
-    <row r="44" spans="2:14" ht="17.25">
+    <row r="44" spans="2:14" ht="16.5">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10" t="s">
@@ -11243,7 +11429,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
     </row>
-    <row r="45" spans="2:14" ht="15.75" thickBot="1">
+    <row r="45" spans="2:14" ht="15" thickBot="1">
       <c r="B45" s="3" t="s">
         <v>112</v>
       </c>
@@ -11268,7 +11454,7 @@
       </c>
       <c r="J45" s="80">
         <f>I45*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>3.453268525172609</v>
+        <v>3.4290464013471404</v>
       </c>
       <c r="K45" s="94">
         <f>I45*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -11333,7 +11519,7 @@
       <c r="M49" s="64"/>
       <c r="N49" s="64"/>
     </row>
-    <row r="50" spans="2:14" ht="17.25">
+    <row r="50" spans="2:14" ht="16.5">
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10" t="s">
@@ -11360,7 +11546,7 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
     </row>
-    <row r="51" spans="2:14" ht="15.75" thickBot="1">
+    <row r="51" spans="2:14" ht="15" thickBot="1">
       <c r="B51" s="3" t="s">
         <v>113</v>
       </c>
@@ -11383,7 +11569,7 @@
       </c>
       <c r="J51" s="80">
         <f>I51*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>5.1281010343804168</v>
+        <v>5.0921311996169676</v>
       </c>
       <c r="K51" s="94">
         <f>I51*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -11445,7 +11631,7 @@
       <c r="M54" s="26"/>
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="2:14" ht="15.75" thickBot="1">
+    <row r="55" spans="2:14" ht="15" thickBot="1">
       <c r="B55" s="3" t="s">
         <v>98</v>
       </c>
@@ -11518,7 +11704,7 @@
       <c r="M58" s="124"/>
       <c r="N58" s="124"/>
     </row>
-    <row r="59" spans="2:14" ht="15.75" thickBot="1">
+    <row r="59" spans="2:14" ht="15" thickBot="1">
       <c r="B59" s="112" t="s">
         <v>99</v>
       </c>
@@ -11584,7 +11770,7 @@
       <c r="M62" s="26"/>
       <c r="N62" s="10"/>
     </row>
-    <row r="63" spans="2:14" ht="36.6" customHeight="1" thickBot="1">
+    <row r="63" spans="2:14" ht="36.65" customHeight="1" thickBot="1">
       <c r="B63" s="3" t="s">
         <v>119</v>
       </c>
@@ -11597,7 +11783,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="80">
         <f>J59+J55+J51+J45+J41+J37</f>
-        <v>54.69487677912722</v>
+        <v>54.204015567516507</v>
       </c>
       <c r="K63" s="94"/>
       <c r="L63" s="5"/>
@@ -11668,7 +11854,7 @@
       <c r="K67" s="98"/>
       <c r="N67" s="18"/>
     </row>
-    <row r="68" spans="2:14" ht="17.25">
+    <row r="68" spans="2:14" ht="16.5">
       <c r="B68" s="10" t="s">
         <v>101</v>
       </c>
@@ -11697,7 +11883,7 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="2:14" ht="17.25">
+    <row r="69" spans="2:14" ht="16.5">
       <c r="B69" s="15" t="s">
         <v>104</v>
       </c>
@@ -11707,11 +11893,11 @@
       </c>
       <c r="D69" s="126">
         <f>SUMPRODUCT($I$34:$I$35,$C$34:$C$35)/SUM($C$34:$C$35)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="E69" s="127">
         <f>FORECAST(D69,Glassoorten[Zontoetredingsfactor],Glassoorten[U-waarde '[W/m2K']])</f>
-        <v>0.66148931196592287</v>
+        <v>0.6044265084023791</v>
       </c>
       <c r="F69" s="37">
         <v>300.76319999999998</v>
@@ -11724,15 +11910,15 @@
       </c>
       <c r="I69" s="37">
         <f>$E69*C69*F69*H69</f>
-        <v>716.22591203760919</v>
+        <v>654.44130299493509</v>
       </c>
       <c r="J69" s="85">
         <f>I69*3.6/1000</f>
-        <v>2.5784132833353932</v>
+        <v>2.3559886907817664</v>
       </c>
       <c r="K69" s="95"/>
     </row>
-    <row r="70" spans="2:14" ht="17.25">
+    <row r="70" spans="2:14" ht="16.5">
       <c r="B70" s="15" t="s">
         <v>107</v>
       </c>
@@ -11742,11 +11928,11 @@
       </c>
       <c r="D70">
         <f>SUMPRODUCT($I$34:$I$35,$C$34:$C$35)/SUM($C$34:$C$35)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="E70" s="127">
         <f>FORECAST(D70,Glassoorten[Zontoetredingsfactor],Glassoorten[U-waarde '[W/m2K']])</f>
-        <v>0.66148931196592287</v>
+        <v>0.6044265084023791</v>
       </c>
       <c r="F70" s="37">
         <v>141.72239999999999</v>
@@ -11759,15 +11945,15 @@
       </c>
       <c r="I70" s="37">
         <f t="shared" ref="I70:I72" si="3">$E70*C70*F70*H70</f>
-        <v>337.4922703181735</v>
+        <v>308.37879141985923</v>
       </c>
       <c r="J70" s="85">
         <f>I70*3.6/1000</f>
-        <v>1.2149721731454246</v>
+        <v>1.1101636491114932</v>
       </c>
       <c r="K70" s="95"/>
     </row>
-    <row r="71" spans="2:14" ht="17.25">
+    <row r="71" spans="2:14" ht="16.5">
       <c r="B71" s="15" t="s">
         <v>108</v>
       </c>
@@ -11777,11 +11963,11 @@
       </c>
       <c r="D71" s="64">
         <f>SUMPRODUCT($I$34:$I$35,$C$34:$C$35)/SUM($C$34:$C$35)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="E71" s="127">
         <f>FORECAST(D71,Glassoorten[Zontoetredingsfactor],Glassoorten[U-waarde '[W/m2K']])</f>
-        <v>0.66148931196592287</v>
+        <v>0.6044265084023791</v>
       </c>
       <c r="F71" s="37">
         <v>77.200800000000001</v>
@@ -11794,15 +11980,15 @@
       </c>
       <c r="I71" s="37">
         <f t="shared" si="3"/>
-        <v>183.84301467078777</v>
+        <v>167.98395596353342</v>
       </c>
       <c r="J71" s="85">
         <f>I71*3.6/1000</f>
-        <v>0.66183485281483589</v>
+        <v>0.60474224146872024</v>
       </c>
       <c r="K71" s="95"/>
     </row>
-    <row r="72" spans="2:14" ht="17.25">
+    <row r="72" spans="2:14" ht="16.5">
       <c r="B72" s="15" t="s">
         <v>109</v>
       </c>
@@ -11812,11 +11998,11 @@
       </c>
       <c r="D72" s="10">
         <f>SUMPRODUCT($I$34:$I$35,$C$34:$C$35)/SUM($C$34:$C$35)</f>
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="E72" s="127">
         <f>FORECAST(D72,Glassoorten[Zontoetredingsfactor],Glassoorten[U-waarde '[W/m2K']])</f>
-        <v>0.66148931196592287</v>
+        <v>0.6044265084023791</v>
       </c>
       <c r="F72" s="37">
         <v>144.05760000000001</v>
@@ -11829,15 +12015,15 @@
       </c>
       <c r="I72" s="37">
         <f t="shared" si="3"/>
-        <v>343.05322574686369</v>
+        <v>313.46003583657568</v>
       </c>
       <c r="J72" s="85">
         <f>I72*3.6/1000</f>
-        <v>1.2349916126887093</v>
+        <v>1.1284561290116726</v>
       </c>
       <c r="K72" s="95"/>
     </row>
-    <row r="73" spans="2:14" ht="18" thickBot="1">
+    <row r="73" spans="2:14" ht="17" thickBot="1">
       <c r="B73" s="3" t="s">
         <v>143</v>
       </c>
@@ -11854,11 +12040,11 @@
       <c r="H73" s="66"/>
       <c r="I73" s="70">
         <f>SUM(I69:I72)</f>
-        <v>1580.6144227734342</v>
+        <v>1444.2640862149033</v>
       </c>
       <c r="J73" s="134">
         <f>I73*3.6/1000</f>
-        <v>5.6902119219843632</v>
+        <v>5.1993507103736523</v>
       </c>
       <c r="K73" s="95"/>
     </row>
@@ -11926,7 +12112,7 @@
       <c r="M77" s="10"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="2:14" ht="15.75" thickBot="1">
+    <row r="78" spans="2:14" ht="15" thickBot="1">
       <c r="B78" s="3" t="s">
         <v>133</v>
       </c>
@@ -11986,7 +12172,7 @@
       <c r="M80" s="64"/>
       <c r="N80" s="64"/>
     </row>
-    <row r="81" spans="2:14" ht="17.25">
+    <row r="81" spans="2:14" ht="16.5">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -12011,7 +12197,7 @@
       <c r="M81" s="10"/>
       <c r="N81" s="10"/>
     </row>
-    <row r="82" spans="2:14" ht="15.75" thickBot="1">
+    <row r="82" spans="2:14" ht="15" thickBot="1">
       <c r="B82" s="3" t="s">
         <v>134</v>
       </c>
@@ -12074,7 +12260,7 @@
       <c r="K85" s="95"/>
       <c r="L85" s="40"/>
     </row>
-    <row r="86" spans="2:14" ht="15.75" thickBot="1">
+    <row r="86" spans="2:14" ht="15" thickBot="1">
       <c r="B86" s="3" t="s">
         <v>137</v>
       </c>
@@ -12094,7 +12280,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
     </row>
-    <row r="87" spans="2:14" ht="15.75" thickBot="1">
+    <row r="87" spans="2:14" ht="15" thickBot="1">
       <c r="B87" s="3" t="s">
         <v>138</v>
       </c>
@@ -12114,7 +12300,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
     </row>
-    <row r="88" spans="2:14" ht="15.75" thickBot="1">
+    <row r="88" spans="2:14" ht="15" thickBot="1">
       <c r="B88" s="3" t="s">
         <v>139</v>
       </c>
@@ -12127,7 +12313,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="80">
         <f>SUM(J37,J41,J45,J51,-J73-J78-J82)</f>
-        <v>35.934957857142862</v>
+        <v>35.934957857142855</v>
       </c>
       <c r="K88" s="94"/>
       <c r="L88" s="5"/>
@@ -12197,12 +12383,12 @@
       </c>
       <c r="J97" s="6">
         <f>IF(H97=0,0,$J$88/H97)</f>
-        <v>37.826271428571438</v>
+        <v>37.826271428571431</v>
       </c>
       <c r="K97" s="90"/>
       <c r="L97" s="6">
         <f>J97/31.65*1000</f>
-        <v>1195.1428571428576</v>
+        <v>1195.1428571428573</v>
       </c>
       <c r="M97" t="s">
         <v>162</v>
@@ -12492,11 +12678,11 @@
       </c>
       <c r="J109" s="6">
         <f>SUMIF($M$97:$M$106,$M109,J$97:J$106)</f>
-        <v>47.475000000000009</v>
+        <v>47.475000000000001</v>
       </c>
       <c r="L109" s="6">
         <f>SUMIF($M$97:$M$106,$M109,L$97:L$106)</f>
-        <v>1500.0000000000005</v>
+        <v>1500.0000000000002</v>
       </c>
       <c r="M109" t="s">
         <v>162</v>
@@ -12686,16 +12872,16 @@
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="21.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="21.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
@@ -12758,20 +12944,20 @@
       </c>
     </row>
     <row r="13" spans="3:14">
-      <c r="F13" s="193" t="s">
+      <c r="F13" s="196" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193" t="s">
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-    </row>
-    <row r="14" spans="3:14" ht="18">
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+    </row>
+    <row r="14" spans="3:14" ht="16.5">
       <c r="D14" t="s">
         <v>42</v>
       </c>
@@ -12806,7 +12992,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="17.25">
+    <row r="15" spans="3:14" ht="16.5">
       <c r="C15" s="47"/>
       <c r="D15" s="47" t="s">
         <v>6</v>
@@ -13174,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:16" ht="15.75" thickBot="1">
+    <row r="24" spans="3:16" ht="15" thickBot="1">
       <c r="C24" s="53" t="s">
         <v>58</v>
       </c>
@@ -13218,7 +13404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:16" ht="15.75" thickTop="1">
+    <row r="25" spans="3:16" ht="15" thickTop="1">
       <c r="I25" s="51">
         <f>SUM(I17:I24)</f>
         <v>192.93019877647052</v>
@@ -13233,7 +13419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="3:16" ht="17.25">
+    <row r="27" spans="3:16" ht="16.5">
       <c r="C27" s="15" t="s">
         <v>61</v>
       </c>
@@ -13257,7 +13443,7 @@
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
     </row>
-    <row r="29" spans="3:16" ht="17.25">
+    <row r="29" spans="3:16" ht="16.5">
       <c r="C29" s="15" t="s">
         <v>62</v>
       </c>
@@ -13287,7 +13473,7 @@
       <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" spans="3:16" ht="15.75" thickBot="1">
+    <row r="31" spans="3:16" ht="15" thickBot="1">
       <c r="C31" s="15" t="s">
         <v>65</v>
       </c>
@@ -13302,7 +13488,7 @@
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
     </row>
-    <row r="32" spans="3:16" ht="18" thickBot="1">
+    <row r="32" spans="3:16" ht="17" thickBot="1">
       <c r="C32" s="15" t="s">
         <v>66</v>
       </c>
@@ -13333,7 +13519,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="3:11" ht="15.75" thickBot="1">
+    <row r="34" spans="3:11" ht="15" thickBot="1">
       <c r="C34" s="15" t="s">
         <v>70</v>
       </c>
@@ -13346,7 +13532,7 @@
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
     </row>
-    <row r="35" spans="3:11" ht="15.75" thickBot="1">
+    <row r="35" spans="3:11" ht="15" thickBot="1">
       <c r="C35" s="15" t="s">
         <v>71</v>
       </c>
@@ -13375,7 +13561,7 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="3:11" ht="17.25">
+    <row r="37" spans="3:11" ht="16.5">
       <c r="C37" t="s">
         <v>73</v>
       </c>

--- a/isolatie/Energiebesparingsmethode_v3.xlsx
+++ b/isolatie/Energiebesparingsmethode_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\molenvdf\Desktop\Vesta\PD\VestaDV_SAWEC-WP5\isolatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A0A547-23BC-4E26-931D-49380715A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF5CA4-11A3-4B9B-BAEE-580B8AEA1A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{943CE3BD-1ECF-4364-9907-DF0383AD0E42}"/>
   </bookViews>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="H8" s="150">
         <f>_xlfn.FORECAST.LINEAR($H$9,'Correctie binnentemp'!$B$1:$I$1,INDEX('Correctie binnentemp'!$B$2:$I$77,MATCH($E$29,'Correctie binnentemp'!$A$2:$A$77,0),))</f>
-        <v>28.329423158083557</v>
+        <v>17.316395728408359</v>
       </c>
       <c r="I8" s="154" t="s">
         <v>31</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="H9" s="150" cm="1">
         <f t="array" ref="H9">SUM(D11,-G41:G44)/SUM(G51,-G41:G44)*13+5</f>
-        <v>28.045939124408648</v>
+        <v>16.977303243587698</v>
       </c>
       <c r="I9" s="154" t="s">
         <v>31</v>
@@ -4517,7 +4517,7 @@
       </c>
       <c r="D14" s="159">
         <f>_xlfn.FORECAST.LINEAR($D$12,INDEX('Correctie binnentemp'!$B$2:$I$77,MATCH($E$29,'Correctie binnentemp'!$A$2:$A$77,0),),'Correctie binnentemp'!$B$1:$I$1)</f>
-        <v>19.131728134284437</v>
+        <v>18.729179521798695</v>
       </c>
       <c r="E14" s="154" t="s">
         <v>31</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="D15" s="157">
         <f>(D14-D13)/(18-5)</f>
-        <v>1.0789790872526492</v>
+        <v>1.0480138093691307</v>
       </c>
       <c r="E15" s="156" t="s">
         <v>6</v>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="H19" s="159">
         <f t="shared" ref="H19:H28" si="0">G19*SchalingTempVerschil</f>
-        <v>2.5529568810496372</v>
+        <v>2.4796903829494457</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="H20" s="159">
         <f t="shared" si="0"/>
-        <v>9.7255500230462335</v>
+        <v>9.4464395540931214</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="H22" s="159">
         <f t="shared" si="0"/>
-        <v>1.3893642890066047</v>
+        <v>1.3494913648704461</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4672,18 +4672,18 @@
       </c>
       <c r="E23" s="160">
         <f>INDEX(Uwaarden[[RC=0]:[Niveau 4]],MATCH($C23,Uwaarden[Gebouwdeel],0),MATCH($D23,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>0.50761421319796951</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="F23" s="14">
         <v>62</v>
       </c>
       <c r="G23" s="159">
         <f>INDEX(WarmteverliesBouwdelen[[RC=0]:[Niveau 4]],MATCH($C23,WarmteverliesBouwdelen[Gebouwdeel],0),MATCH($D23,WarmteverliesBouwdelen[[#Headers],[RC=0]:[Niveau 4]],0))*F23</f>
-        <v>5.9572510538071066</v>
+        <v>32.599401600000007</v>
       </c>
       <c r="H23" s="159">
         <f t="shared" si="0"/>
-        <v>6.4277493045716749</v>
+        <v>34.164623053970139</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="H24" s="159">
         <f t="shared" si="0"/>
-        <v>1.4092321983393996</v>
+        <v>1.3687890913880938</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4752,7 +4752,7 @@
       </c>
       <c r="H26" s="159">
         <f t="shared" si="0"/>
-        <v>2.6142278461948281</v>
+        <v>2.5392029521402315</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4775,7 +4775,7 @@
       </c>
       <c r="H27" s="159">
         <f t="shared" si="0"/>
-        <v>2.6142278461948281</v>
+        <v>2.5392029521402315</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="H28" s="159">
         <f t="shared" si="0"/>
-        <v>4.8891521561504501</v>
+        <v>4.748839932383917</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
@@ -4806,16 +4806,16 @@
       <c r="D29" s="3"/>
       <c r="E29" s="17">
         <f>ROUND(SUMPRODUCT(E19:E27,F19:F27)/Vloeroppervlakte,1)</f>
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="17">
         <f>SUM(G19:G27)</f>
-        <v>24.776484275031592</v>
+        <v>51.418634821224494</v>
       </c>
       <c r="H29" s="17">
         <f>SUM(H19:H27)</f>
-        <v>26.733308388403206</v>
+        <v>53.887439351551706</v>
       </c>
     </row>
     <row r="30" spans="3:8">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="H34" s="17">
         <f>G34*SchalingTempVerschil</f>
-        <v>0.59453259845883943</v>
+        <v>0.57747029638126679</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="15" thickBot="1">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="H35" s="17">
         <f>G35*SchalingTempVerschil</f>
-        <v>3.7783797575321993</v>
+        <v>3.6699452377869153</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -5042,11 +5042,11 @@
       <c r="F51" s="3"/>
       <c r="G51" s="17">
         <f>SUM(G29,G34:G35,G41:G44)</f>
-        <v>15.701732609559592</v>
+        <v>42.343883155752494</v>
       </c>
       <c r="H51" s="175">
         <f>SUM(H29,H34:H35,H41:H44)</f>
-        <v>17.978645064394247</v>
+        <v>45.007279205719882</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="15" thickBot="1">
@@ -5134,7 +5134,7 @@
   <dimension ref="B2:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5323,10 +5323,10 @@
         <v>0.19</v>
       </c>
       <c r="D9" s="59">
-        <v>1.3</v>
+        <v>0.19</v>
       </c>
       <c r="E9" s="59">
-        <v>1.8</v>
+        <v>0.19</v>
       </c>
       <c r="F9" s="59">
         <v>3.5</v>
@@ -5627,11 +5627,11 @@
       </c>
       <c r="D22" s="135">
         <f t="shared" si="2"/>
-        <v>0.68027210884353728</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="E22" s="135">
         <f t="shared" si="2"/>
-        <v>0.50761421319796951</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="F22" s="135">
         <f t="shared" si="2"/>
@@ -6087,11 +6087,11 @@
       </c>
       <c r="D56" s="12">
         <f t="shared" si="3"/>
-        <v>0.12876656326530608</v>
+        <v>0.52579680000000006</v>
       </c>
       <c r="E56" s="12">
         <f t="shared" si="3"/>
-        <v>9.6084694416243649E-2</v>
+        <v>0.52579680000000006</v>
       </c>
       <c r="F56" s="12">
         <f t="shared" si="3"/>
@@ -6103,11 +6103,11 @@
       </c>
       <c r="I56" s="193">
         <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 1]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
-        <v>75.510204081632665</v>
+        <v>0</v>
       </c>
       <c r="J56" s="193">
         <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 2]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
-        <v>81.725888324873097</v>
+        <v>0</v>
       </c>
       <c r="K56" s="193">
         <f>100-100*WarmteverliesBouwdelen[[#This Row],[Niveau 3]]/WarmteverliesBouwdelen[[#This Row],[RC=0]]</f>
@@ -10608,7 +10608,7 @@
       </c>
       <c r="M5" s="8">
         <f>J10/K7</f>
-        <v>1.4541426289881425</v>
+        <v>0.77443529158813462</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="K7" s="138">
         <f>SUM(K37,K41,K45,K51)</f>
-        <v>32.872442919013203</v>
+        <v>61.723969822566502</v>
       </c>
       <c r="L7" t="s">
         <v>111</v>
@@ -10687,14 +10687,14 @@
     <row r="11" spans="2:13">
       <c r="J11" s="135">
         <f>TempVerschilCorrectie*M5</f>
-        <v>27.48890021072711</v>
+        <v>7.7967502711435879</v>
       </c>
       <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:13">
       <c r="J12" s="136">
         <f>J11-buitentemperatuur</f>
-        <v>22.48890021072711</v>
+        <v>2.7967502711435879</v>
       </c>
       <c r="K12" s="90"/>
     </row>
@@ -10746,7 +10746,7 @@
     <row r="17" spans="2:16">
       <c r="G17" s="6">
         <f>SUMPRODUCT(I27:I35,C27:C35)/B6</f>
-        <v>1.3659112883732172</v>
+        <v>2.7734126984126983</v>
       </c>
       <c r="I17" t="s">
         <v>30</v>
@@ -10776,7 +10776,7 @@
       </c>
       <c r="M18" s="6">
         <f>buitentemperatuur+M19</f>
-        <v>32.774124213673524</v>
+        <v>19.791714069333374</v>
       </c>
     </row>
     <row r="19" spans="2:16">
@@ -10795,7 +10795,7 @@
       </c>
       <c r="M19" s="6">
         <f>temperatuurverschil*M5</f>
-        <v>27.774124213673524</v>
+        <v>14.791714069333372</v>
       </c>
     </row>
     <row r="20" spans="2:16">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="J20" s="75">
         <f>TemperatuurVerschilCorrectieTheoretisch*M5</f>
-        <v>18.903854176845854</v>
+        <v>10.06765879064575</v>
       </c>
       <c r="K20" s="90">
         <f>K18-K17</f>
@@ -10923,7 +10923,7 @@
       </c>
       <c r="J27" s="78">
         <f t="shared" ref="J27:J35" si="0">I27*D27*C27*TempVerschilCorrectie*stookuren*3.6/10^6</f>
-        <v>3.7259496582563179</v>
+        <v>1.984335547636277</v>
       </c>
       <c r="K27" s="142">
         <f t="shared" ref="K27:K35" si="1">I27*D27*C27*$K$20*stookuren*3.6/10^6</f>
@@ -10956,7 +10956,7 @@
       </c>
       <c r="J28" s="78">
         <f t="shared" si="0"/>
-        <v>14.194093936214539</v>
+        <v>7.5593735148048644</v>
       </c>
       <c r="K28" s="97">
         <f t="shared" si="1"/>
@@ -11051,15 +11051,15 @@
       </c>
       <c r="I31" s="72">
         <f>INDEX(Kentallen!$C22:$G22,1,MATCH($H31,Uwaarden[[#Headers],[RC=0]:[Niveau 4]],0))</f>
-        <v>0.50761421319796951</v>
+        <v>2.7777777777777777</v>
       </c>
       <c r="J31" s="78">
         <f t="shared" si="0"/>
-        <v>9.3810712207874811</v>
+        <v>27.339734211877598</v>
       </c>
       <c r="K31" s="97">
         <f t="shared" si="1"/>
-        <v>6.4512730964467</v>
+        <v>35.302799999999998</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="J32" s="78">
         <f t="shared" si="0"/>
-        <v>2.0567242113574875</v>
+        <v>1.0953532222952251</v>
       </c>
       <c r="K32" s="97">
         <f t="shared" si="1"/>
@@ -11154,7 +11154,7 @@
       </c>
       <c r="J34" s="78">
         <f t="shared" si="0"/>
-        <v>3.8153724500544697</v>
+        <v>2.031959600779548</v>
       </c>
       <c r="K34" s="97">
         <f t="shared" si="1"/>
@@ -11187,7 +11187,7 @@
       </c>
       <c r="J35" s="79">
         <f t="shared" si="0"/>
-        <v>3.8153724500544697</v>
+        <v>2.031959600779548</v>
       </c>
       <c r="K35" s="97">
         <f t="shared" si="1"/>
@@ -11240,15 +11240,15 @@
       <c r="H37" s="3"/>
       <c r="I37" s="7">
         <f>SUMPRODUCT(I27:I35,C27:C35)/C37</f>
-        <v>0.71890067809116698</v>
+        <v>1.4596908939014202</v>
       </c>
       <c r="J37" s="80">
         <f t="shared" ref="J37" si="2">SUM(J27:J35)</f>
-        <v>36.988583926724765</v>
+        <v>42.042715698173062</v>
       </c>
       <c r="K37" s="94">
         <f>SUM(K27:K35)</f>
-        <v>25.436695953589556</v>
+        <v>54.288222857142856</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="J41" s="80">
         <f>I41*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>2.291459039827636</v>
+        <v>1.220366361796311</v>
       </c>
       <c r="K41" s="94">
         <f>I41*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="J45" s="80">
         <f>I45*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>3.4290464013471404</v>
+        <v>1.8262132591108917</v>
       </c>
       <c r="K45" s="94">
         <f>I45*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -11569,7 +11569,7 @@
       </c>
       <c r="J51" s="80">
         <f>I51*stookuren*TempVerschilCorrectie*3.6/10^6</f>
-        <v>5.0921311996169676</v>
+        <v>2.7119252484362457</v>
       </c>
       <c r="K51" s="94">
         <f>I51*StookurenTheoretisch*TemperatuurVerschilCorrectieTheoretisch*3.6/10^6</f>
@@ -13606,65 +13606,49 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lca20d149a844688b6abf34073d5c21d xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lca20d149a844688b6abf34073d5c21d>
+    <_dlc_DocId xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">AAZZDUZTTQ42-92714316-432</_dlc_DocId>
+    <bac4ab11065f4f6c809c820c57e320e5 xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </bac4ab11065f4f6c809c820c57e320e5>
+    <cf581d8792c646118aad2c2c4ecdfa8c xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </cf581d8792c646118aad2c2c4ecdfa8c>
+    <TaxCatchAll xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Value>5</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
+        </TermInfo>
+      </Terms>
+    </n2a7a23bcc2241cb9261f9a914c7c1bb>
+    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">SAWEC Model (PBL)</TNOC_ClusterName>
+    <_dlc_DocIdUrl xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Url>https://365tno.sharepoint.com/teams/P060.47751/_layouts/15/DocIdRedir.aspx?ID=AAZZDUZTTQ42-92714316-432</Url>
+      <Description>AAZZDUZTTQ42-92714316-432</Description>
+    </_dlc_DocIdUrl>
+    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">060.47751</TNOC_ClusterId>
+    <h15fbb78f4cb41d290e72f301ea2865f xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
+        </TermInfo>
+      </Terms>
+    </h15fbb78f4cb41d290e72f301ea2865f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Team Document" ma:contentTypeID="0x010100A35317DCC28344A7B82488658A034A5C0100A3A4D3FB9D40E541B50B669EFFB551B1" ma:contentTypeVersion="7" ma:contentTypeDescription=" " ma:contentTypeScope="" ma:versionID="1738fdab92833b27aa0d4e9c9f056cda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84272610-d261-4ae1-afd8-e3d42c82ba61" xmlns:ns3="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7" xmlns:ns5="e3dc0238-67ea-4d9a-96fc-6035fa65f498" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="65ef5a2d6ca93b69eaeb9d6701f2bd48" ns2:_="" ns3:_="" ns5:_="">
     <xsd:import namespace="84272610-d261-4ae1-afd8-e3d42c82ba61"/>
@@ -13937,66 +13921,77 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lca20d149a844688b6abf34073d5c21d xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lca20d149a844688b6abf34073d5c21d>
-    <_dlc_DocId xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">AAZZDUZTTQ42-92714316-432</_dlc_DocId>
-    <bac4ab11065f4f6c809c820c57e320e5 xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </bac4ab11065f4f6c809c820c57e320e5>
-    <cf581d8792c646118aad2c2c4ecdfa8c xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </cf581d8792c646118aad2c2c4ecdfa8c>
-    <TaxCatchAll xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Value>5</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <n2a7a23bcc2241cb9261f9a914c7c1bb xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">TNO Internal</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">1a23c89f-ef54-4907-86fd-8242403ff722</TermId>
-        </TermInfo>
-      </Terms>
-    </n2a7a23bcc2241cb9261f9a914c7c1bb>
-    <TNOC_ClusterName xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">SAWEC Model (PBL)</TNOC_ClusterName>
-    <_dlc_DocIdUrl xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Url>https://365tno.sharepoint.com/teams/P060.47751/_layouts/15/DocIdRedir.aspx?ID=AAZZDUZTTQ42-92714316-432</Url>
-      <Description>AAZZDUZTTQ42-92714316-432</Description>
-    </_dlc_DocIdUrl>
-    <TNOC_ClusterId xmlns="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7">060.47751</TNOC_ClusterId>
-    <h15fbb78f4cb41d290e72f301ea2865f xmlns="84272610-d261-4ae1-afd8-e3d42c82ba61">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Project</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">fa11c4c9-105f-402c-bb40-9a56b4989397</TermId>
-        </TermInfo>
-      </Terms>
-    </h15fbb78f4cb41d290e72f301ea2865f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3416A1B-3FC4-4FFF-8CB0-4A2FD63F34EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2BEE35-3815-4D52-A190-923A31F28BD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="84272610-d261-4ae1-afd8-e3d42c82ba61"/>
+    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC7FEB59-6DC1-4F47-8ECF-180BA4FBBA0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FDBD6F4-3226-42BD-BAFC-566ED08922B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14016,13 +14011,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC7FEB59-6DC1-4F47-8ECF-180BA4FBBA0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2BEE35-3815-4D52-A190-923A31F28BD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3416A1B-3FC4-4FFF-8CB0-4A2FD63F34EA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="84272610-d261-4ae1-afd8-e3d42c82ba61"/>
-    <ds:schemaRef ds:uri="2f6a910d-138e-42c1-8e8a-320c1b7cf3f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>